--- a/data/input/absenteeism_data_43.xlsx
+++ b/data/input/absenteeism_data_43.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71524</v>
+        <v>14200</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Erick Nogueira</t>
+          <t>Igor Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>6040.31</v>
+        <v>12318.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2122</v>
+        <v>61303</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gustavo Nogueira</t>
+          <t>Amanda Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>7714.46</v>
+        <v>3814.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33948</v>
+        <v>98144</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kevin Nunes</t>
+          <t>Lavínia Duarte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>5127.28</v>
+        <v>8890.780000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7494</v>
+        <v>13740</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiza Correia</t>
+          <t>Davi Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,89 +577,89 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>12252.18</v>
+        <v>8767.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99283</v>
+        <v>39273</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alice da Cunha</t>
+          <t>João da Paz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>9834.82</v>
+        <v>4850.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80584</v>
+        <v>17092</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Natália Farias</t>
+          <t>Sr. Pedro Lucas Dias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>5664.46</v>
+        <v>11044.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22254</v>
+        <v>7846</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Miguel Vieira</t>
+          <t>Yuri Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>8508.23</v>
+        <v>12163.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40766</v>
+        <v>21470</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manuela Santos</t>
+          <t>Ana Vitória da Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>7476.42</v>
+        <v>8663.549999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91626</v>
+        <v>84781</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emanuel Caldeira</t>
+          <t>Ian Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>5891.19</v>
+        <v>8547.129999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30328</v>
+        <v>29076</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Felipe Cunha</t>
+          <t>Cecília Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45096</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>11200.14</v>
+        <v>11022.13</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_43.xlsx
+++ b/data/input/absenteeism_data_43.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14200</v>
+        <v>39879</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Igor Moreira</t>
+          <t>Juliana Silveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>12318.16</v>
+        <v>4865.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61303</v>
+        <v>98497</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amanda Viana</t>
+          <t>Diogo Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>3814.8</v>
+        <v>7556.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98144</v>
+        <v>4140</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lavínia Duarte</t>
+          <t>Larissa Lopes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,118 +548,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>8890.780000000001</v>
+        <v>4145.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13740</v>
+        <v>97887</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Davi Rocha</t>
+          <t>Marcelo Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>8767.76</v>
+        <v>4106.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39273</v>
+        <v>39737</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João da Paz</t>
+          <t>Maria Sophia Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>4850.88</v>
+        <v>9556.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17092</v>
+        <v>39642</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Pedro Lucas Dias</t>
+          <t>Thiago Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>11044.65</v>
+        <v>12045.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7846</v>
+        <v>54622</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yuri Moraes</t>
+          <t>Dr. Guilherme Moura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>12163.43</v>
+        <v>3836.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21470</v>
+        <v>55082</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Vitória da Rocha</t>
+          <t>Caroline Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,31 +693,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>8663.549999999999</v>
+        <v>4531.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84781</v>
+        <v>87129</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ian Castro</t>
+          <t>Luiz Fernando Rodrigues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>8547.129999999999</v>
+        <v>6825.79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29076</v>
+        <v>34256</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cecília Moreira</t>
+          <t>Marcela Souza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>11022.13</v>
+        <v>2731.52</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_43.xlsx
+++ b/data/input/absenteeism_data_43.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39879</v>
+        <v>62722</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juliana Silveira</t>
+          <t>Dr. Vitor Hugo da Conceição</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>4865.38</v>
+        <v>10103.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98497</v>
+        <v>20143</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diogo Azevedo</t>
+          <t>Maria Vitória Peixoto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>7556.64</v>
+        <v>4844.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4140</v>
+        <v>51377</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Larissa Lopes</t>
+          <t>Sr. Luiz Otávio da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,32 +552,32 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>4145.37</v>
+        <v>8483.610000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97887</v>
+        <v>81567</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcelo Vieira</t>
+          <t>Giovanna da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -587,50 +587,50 @@
         <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>4106.09</v>
+        <v>6816.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39737</v>
+        <v>47739</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Sophia Santos</t>
+          <t>Isis Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>9556.09</v>
+        <v>9982.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39642</v>
+        <v>90345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thiago Almeida</t>
+          <t>Benjamin Nascimento</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>12045.56</v>
+        <v>6363.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54622</v>
+        <v>48463</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Guilherme Moura</t>
+          <t>João Vitor Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>3836.89</v>
+        <v>5272.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>55082</v>
+        <v>57595</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Caroline Vieira</t>
+          <t>Lucas Pinto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>4531.74</v>
+        <v>3284.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87129</v>
+        <v>88665</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Fernando Rodrigues</t>
+          <t>Sr. Murilo Oliveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>6825.79</v>
+        <v>9008.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34256</v>
+        <v>60790</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcela Souza</t>
+          <t>Breno Vieira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>2731.52</v>
+        <v>6860.44</v>
       </c>
     </row>
   </sheetData>
